--- a/data/trans_dic/P1806_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1806_2023-Clase-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.03298348908258342</v>
+        <v>0.03298348908258341</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.05590821209036926</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0437595912252623</v>
+        <v>0.04375959122526229</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02094940392521774</v>
+        <v>0.02117527075831271</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04153023058050089</v>
+        <v>0.03901800340841005</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03289144277837849</v>
+        <v>0.03393974586724695</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0512763179077429</v>
+        <v>0.05563242467972741</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07646141096796016</v>
+        <v>0.0763940369258353</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05697163956707613</v>
+        <v>0.05736250028357314</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02054524981747496</v>
+        <v>0.02115295274597902</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05529819579384567</v>
+        <v>0.05389868876882596</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03897521505409748</v>
+        <v>0.04095152618005543</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05217347533266434</v>
+        <v>0.05147392635075884</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09946133111703287</v>
+        <v>0.09783169589453582</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06482044602832936</v>
+        <v>0.06674377829556663</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.004806015431270278</v>
+        <v>0.005220704717003655</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05009292920002629</v>
+        <v>0.04743759255993189</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02056165760785712</v>
+        <v>0.02186228612314363</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02405382526971921</v>
+        <v>0.02473047317394572</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1125488489403789</v>
+        <v>0.1099503341629866</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04305898890123706</v>
+        <v>0.04329275613516978</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.04828563713381737</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.0332123063022932</v>
+        <v>0.03321230630229321</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01483308870459971</v>
+        <v>0.01449132126934761</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03823081856642093</v>
+        <v>0.03819129481390311</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02650279706587663</v>
+        <v>0.02665629502382417</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03381309597822418</v>
+        <v>0.03210222270761776</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.06158123657638276</v>
+        <v>0.06311034681437408</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04198016310645913</v>
+        <v>0.04109874812901883</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.04873892581703204</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.03343468592080865</v>
+        <v>0.03343468592080864</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.005591524354565838</v>
+        <v>0.005034913244078772</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03698319704634832</v>
+        <v>0.03753109634715707</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02688566901864174</v>
+        <v>0.02689984663571978</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02033152291758932</v>
+        <v>0.02026559226462724</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06023880293205404</v>
+        <v>0.06164495911967814</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04151990616305141</v>
+        <v>0.04251204931821932</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.02867349940927754</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.03702961426875841</v>
+        <v>0.03702961426875843</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.035195548252235</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.008327041169878601</v>
+        <v>0.007962465449916528</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02694400365639627</v>
+        <v>0.02710955886860996</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02563496724903355</v>
+        <v>0.0262211590158506</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08106012736213061</v>
+        <v>0.08586887486316414</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05012039122443112</v>
+        <v>0.05086732098538103</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05041126613472008</v>
+        <v>0.04954303175430836</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.02275994580942168</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.05110290959087606</v>
+        <v>0.05110290959087605</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.03731519581895026</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01795800190377856</v>
+        <v>0.01783555112396304</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04524184247499027</v>
+        <v>0.04572452162477401</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03367854348716844</v>
+        <v>0.0334992160642778</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02871356732436592</v>
+        <v>0.02855904231927428</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0575649356137233</v>
+        <v>0.05743562594001395</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04132939993365926</v>
+        <v>0.04139696607627</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11535</v>
+        <v>11659</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20284</v>
+        <v>19057</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>34175</v>
+        <v>35264</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28234</v>
+        <v>30632</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>37345</v>
+        <v>37312</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>59195</v>
+        <v>59601</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9928</v>
+        <v>10221</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>23399</v>
+        <v>22807</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>35325</v>
+        <v>37117</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25211</v>
+        <v>24873</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>42086</v>
+        <v>41397</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>58750</v>
+        <v>60494</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2267</v>
+        <v>2462</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9392</v>
+        <v>8894</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>13552</v>
+        <v>14410</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>11344</v>
+        <v>11663</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>21103</v>
+        <v>20615</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28381</v>
+        <v>28535</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16789</v>
+        <v>16402</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>32902</v>
+        <v>32868</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>52806</v>
+        <v>53112</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>38271</v>
+        <v>36335</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>52998</v>
+        <v>54314</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>83644</v>
+        <v>81888</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3176</v>
+        <v>2860</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>30727</v>
+        <v>31183</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>37608</v>
+        <v>37628</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11548</v>
+        <v>11510</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>50049</v>
+        <v>51218</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>58079</v>
+        <v>59466</v>
       </c>
     </row>
     <row r="24">
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1975</v>
+        <v>1889</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>22730</v>
+        <v>22870</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>27707</v>
+        <v>28340</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>19230</v>
+        <v>20371</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>42281</v>
+        <v>42911</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>54486</v>
+        <v>53547</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>61820</v>
+        <v>61398</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>164414</v>
+        <v>166168</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>238329</v>
+        <v>237060</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>98846</v>
+        <v>98314</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>209197</v>
+        <v>208727</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>292471</v>
+        <v>292949</v>
       </c>
     </row>
     <row r="32">
